--- a/erp/tests/files/receivables/receipt_repeated.xlsx
+++ b/erp/tests/files/receivables/receipt_repeated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp Pavilion\Documents\Tut y cursos\CS50 - Intro Web Programming\Final Project\receivables\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B380E512-04C0-409D-A743-3079058CA701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC9EB32-2949-42BC-A6D0-C47CAA465C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -900,10 +900,21 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -957,7 +968,7 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>1208</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>1</v>
